--- a/biology/Médecine/Transe/Transe.xlsx
+++ b/biology/Médecine/Transe/Transe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La transe est un état modifié de conscience. Il en existe différentes formes : chamanique, hypnotique, médiumnique, etc.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme transe, qui peut aussi s'écrire trance (terme anglais), est de la même famille que le verbe « transir », qui, au Moyen Âge, signifie « partir », « passer », « s'écouler ». Il vient du latin transire. À partir du Ve siècle, il prend souvent le sens de « passer de vie à trépas », tout comme le terme samadhi parfois utilisé dans l'hindouisme.
 Bien que l'expression « entrer en transe » au sens d'un état psycho-physiologique particulier soit apparue au XIVe siècle, l'état de transe est connu depuis plus longtemps.
@@ -543,10 +557,12 @@
           <t>Définitions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Georges Lapassade, la transe est un « état second », « ayant à la fois une dimension psychologique et une dimension sociale »[1].
-Selon Pierre A. Riffard : « La transe (transport spirituel) est un état modifié de conscience impliquant d'abord un dédoublement, le vécu d'une division ou multiplication de personnalité (corps/âme, esprit propre/esprit étranger…), ensuite un automatisme psychologique, l'impression de subir certains phénomènes psychiques (autonomie de l'âme, incorporation d'un esprit…) »[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Georges Lapassade, la transe est un « état second », « ayant à la fois une dimension psychologique et une dimension sociale ».
+Selon Pierre A. Riffard : « La transe (transport spirituel) est un état modifié de conscience impliquant d'abord un dédoublement, le vécu d'une division ou multiplication de personnalité (corps/âme, esprit propre/esprit étranger…), ensuite un automatisme psychologique, l'impression de subir certains phénomènes psychiques (autonomie de l'âme, incorporation d'un esprit…) ».
 </t>
         </is>
       </c>
@@ -575,11 +591,13 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La transe a été popularisée par les images spectaculaires de « sorciers » dont le corps était agité de soubresauts et les yeux révulsés. Si certains de ces phénomènes sont authentiques, d'autres sont simulés. Dans les soirées « techno » (les rave party), il a pu être noté que, sans connaissance du phénomène, une forme de transe pouvait être produite par entrainement collectif[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La transe a été popularisée par les images spectaculaires de « sorciers » dont le corps était agité de soubresauts et les yeux révulsés. Si certains de ces phénomènes sont authentiques, d'autres sont simulés. Dans les soirées « techno » (les rave party), il a pu être noté que, sans connaissance du phénomène, une forme de transe pouvait être produite par entrainement collectif.
 La transe résulte de moyens « techniques » particuliers : danse rotative (Danse circulaire), accompagnée de musique percussive ou à tendance obsessionnelle, hyperflexion ou hyperextension du cou, pression sur les globes oculaires et fermeture des paupières, manœuvre de Valsalva, usage de certains procédés sonores, jeûne, respiration accélérée (hyperventilation, rebirth), usage éventuel de psychoactifs comme les plantes enthéogènes, échauffement collectif, etc. Certaines de ces méthodes pouvant présenter un danger, il est fortement déconseillé de les pratiquer sans un encadrement initial de personnes expérimentées.
-En psychiatrie, dans le DSM-5, l'expression « transe dissociative » est utilisée pour caractériser un trouble pathologique[4].
+En psychiatrie, dans le DSM-5, l'expression « transe dissociative » est utilisée pour caractériser un trouble pathologique.
 </t>
         </is>
       </c>
@@ -608,18 +626,20 @@
           <t>Formes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Les formes de la transe sont nombreuses, et fort différentes. En voici les types principaux, cités par ordre alphabétique[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Les formes de la transe sont nombreuses, et fort différentes. En voici les types principaux, cités par ordre alphabétique.
 transe cataleptique
 transe chamanique
-transe cognitive auto-induite[6]
+transe cognitive auto-induite
 transe convulsive
 transe de personnalités multiples : trouble dissociatif de l'identité
 transe de possession
 transe de vision
 transe d'inspiration créative, poétique (poïétique) ou divine (théopneustie)
-transe divinatoire, les plus célèbres étant celles de la Pythie de Delphes, ou encore de l'oracle de Nechung, l'oracle d'État du Tibet, dont Thubten Ngodup est actuellement le médium[7].
+transe divinatoire, les plus célèbres étant celles de la Pythie de Delphes, ou encore de l'oracle de Nechung, l'oracle d'État du Tibet, dont Thubten Ngodup est actuellement le médium.
 transe ecsomatique : sortie-hors-du-corps, voyage astral, Out-of-the-Body Experience (O.B.E.)
 transe érotique
 transe extatique (de nature mystique)
@@ -660,7 +680,9 @@
           <t>Homonymie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Transes, est un film marocain réalisé par Ahmed El Maânouni en 1981</t>
         </is>
